--- a/data/trans_orig/P22_R3-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P22_R3-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>49194</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36530</v>
+        <v>37524</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64052</v>
+        <v>63224</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1041652972017132</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07734923473242949</v>
+        <v>0.07945488246220692</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1356246691209265</v>
+        <v>0.1338718563453507</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -765,19 +765,19 @@
         <v>32040</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22831</v>
+        <v>22857</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44917</v>
+        <v>44961</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.104474885051697</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07444500442881768</v>
+        <v>0.07453194412047622</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1464633426569553</v>
+        <v>0.1466047778831925</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -786,19 +786,19 @@
         <v>81235</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64111</v>
+        <v>64787</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>98992</v>
+        <v>98562</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1042871845419549</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08230363299833551</v>
+        <v>0.08317158909900883</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1270831651904759</v>
+        <v>0.1265319762157555</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>423079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>408221</v>
+        <v>409049</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>435743</v>
+        <v>434749</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8958347027982868</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8643753308790734</v>
+        <v>0.8661281436546492</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9226507652675704</v>
+        <v>0.9205451175377927</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>267</v>
@@ -836,19 +836,19 @@
         <v>274640</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>261763</v>
+        <v>261719</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>283849</v>
+        <v>283823</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.895525114948303</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8535366573430444</v>
+        <v>0.853395222116807</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9255549955711821</v>
+        <v>0.9254680558795237</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>673</v>
@@ -857,19 +857,19 @@
         <v>697718</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>679961</v>
+        <v>680391</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>714842</v>
+        <v>714166</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.895712815458045</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8729168348095243</v>
+        <v>0.8734680237842447</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9176963670016649</v>
+        <v>0.9168284109009912</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>44390</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32262</v>
+        <v>32632</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57800</v>
+        <v>59745</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1209756770149794</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08792435758598206</v>
+        <v>0.08893049561417975</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1575222710832494</v>
+        <v>0.1628218093041565</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -982,19 +982,19 @@
         <v>20198</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12552</v>
+        <v>12705</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31090</v>
+        <v>30327</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05431450232942302</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03375520119516433</v>
+        <v>0.03416536736755481</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08360559589418447</v>
+        <v>0.08155382254177498</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -1003,19 +1003,19 @@
         <v>64588</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52014</v>
+        <v>49904</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84109</v>
+        <v>81007</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08742264218480478</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0704037611056222</v>
+        <v>0.0675478021865686</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1138451867230301</v>
+        <v>0.1096470272386957</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>322544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>309134</v>
+        <v>307189</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>334672</v>
+        <v>334302</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8790243229850205</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8424777289167504</v>
+        <v>0.8371781906958435</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9120756424140177</v>
+        <v>0.9110695043858204</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>344</v>
@@ -1053,19 +1053,19 @@
         <v>351667</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>340775</v>
+        <v>341538</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>359313</v>
+        <v>359160</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.945685497670577</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9163944041058155</v>
+        <v>0.9184461774582249</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9662447988048356</v>
+        <v>0.9658346326324451</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>652</v>
@@ -1074,19 +1074,19 @@
         <v>674211</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>654690</v>
+        <v>657792</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>686785</v>
+        <v>688895</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9125773578151952</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8861548132769693</v>
+        <v>0.8903529727613038</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9295962388943777</v>
+        <v>0.9324521978134312</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3500</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9517</v>
+        <v>8891</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006462961725124872</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001684387831769905</v>
+        <v>0.001675684458415442</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01757292775788183</v>
+        <v>0.01641628392010581</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1199,19 +1199,19 @@
         <v>7314</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2921</v>
+        <v>3100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14534</v>
+        <v>14339</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04359443299716569</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01740947910043835</v>
+        <v>0.01847790021125468</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08662566061035971</v>
+        <v>0.0854600656364821</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1220,19 +1220,19 @@
         <v>10815</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5422</v>
+        <v>5099</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19461</v>
+        <v>18291</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01524560632318709</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007644006792898857</v>
+        <v>0.007188333346960558</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02743474808847001</v>
+        <v>0.02578491822356453</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>538071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>532054</v>
+        <v>532680</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>540659</v>
+        <v>540663</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9935370382748752</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9824270722421193</v>
+        <v>0.9835837160798941</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9983156121682301</v>
+        <v>0.9983243155415845</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>157</v>
@@ -1270,19 +1270,19 @@
         <v>160468</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153248</v>
+        <v>153443</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>164861</v>
+        <v>164682</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9564055670028343</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.91337433938964</v>
+        <v>0.9145399343635178</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9825905208995616</v>
+        <v>0.9815220997887453</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>684</v>
@@ -1291,19 +1291,19 @@
         <v>698538</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>689892</v>
+        <v>691062</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>703931</v>
+        <v>704254</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9847543936768129</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9725652519115301</v>
+        <v>0.9742150817764355</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9923559932071012</v>
+        <v>0.9928116666530394</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>10153</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5396</v>
+        <v>5465</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18463</v>
+        <v>17893</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008220211815059391</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004368409198183133</v>
+        <v>0.004424578805745274</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01494756890355586</v>
+        <v>0.0144863433205085</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1416,19 +1416,19 @@
         <v>19589</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12750</v>
+        <v>12148</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30730</v>
+        <v>30212</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02742511391197001</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01785027558517023</v>
+        <v>0.01700710109523485</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04302142879926657</v>
+        <v>0.04229716400351773</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -1437,19 +1437,19 @@
         <v>29743</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21618</v>
+        <v>20013</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43684</v>
+        <v>41478</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01525691563744226</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01108914877881828</v>
+        <v>0.01026605092743756</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02240819474747851</v>
+        <v>0.02127649474150118</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1225023</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1216713</v>
+        <v>1217283</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1229780</v>
+        <v>1229711</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9917797881849406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9850524310964444</v>
+        <v>0.9855136566794915</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9956315908018172</v>
+        <v>0.9955754211942548</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>675</v>
@@ -1487,19 +1487,19 @@
         <v>694696</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>683555</v>
+        <v>684073</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>701535</v>
+        <v>702137</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.97257488608803</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9569785712007329</v>
+        <v>0.9577028359964813</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9821497244148297</v>
+        <v>0.982992898904765</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1885</v>
@@ -1508,19 +1508,19 @@
         <v>1919718</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1905777</v>
+        <v>1907983</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1927843</v>
+        <v>1929448</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9847430843625578</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9775918052525218</v>
+        <v>0.9787235052584989</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9889108512211818</v>
+        <v>0.9897339490725625</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>9587</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4829</v>
+        <v>4822</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16699</v>
+        <v>16588</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02734768145268217</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01377624028696179</v>
+        <v>0.01375654018914099</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04763558436597388</v>
+        <v>0.04731787905420809</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1633,19 +1633,19 @@
         <v>19482</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11006</v>
+        <v>11654</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30197</v>
+        <v>30700</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03425315901993878</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01935142067211692</v>
+        <v>0.02049023983096115</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05309303260446592</v>
+        <v>0.05397798868249738</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -1654,19 +1654,19 @@
         <v>29068</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19072</v>
+        <v>18432</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41693</v>
+        <v>41460</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03161992413783644</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02074578207224674</v>
+        <v>0.02004941424276324</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04535285878951015</v>
+        <v>0.04509872853710577</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>340968</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>333856</v>
+        <v>333967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>345726</v>
+        <v>345733</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9726523185473178</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9523644156340261</v>
+        <v>0.952682120945792</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9862237597130382</v>
+        <v>0.986243459810859</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>522</v>
@@ -1704,19 +1704,19 @@
         <v>549270</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>538555</v>
+        <v>538052</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>557746</v>
+        <v>557098</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9657468409800612</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9469069673955341</v>
+        <v>0.9460220113175026</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9806485793278834</v>
+        <v>0.9795097601690389</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>852</v>
@@ -1725,19 +1725,19 @@
         <v>890239</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>877614</v>
+        <v>877847</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>900235</v>
+        <v>900875</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9683800758621636</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9546471412104898</v>
+        <v>0.9549012714628943</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.979254217927753</v>
+        <v>0.9799505857572368</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>11569</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6375</v>
+        <v>6489</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19842</v>
+        <v>19646</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03891831958951322</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02144490208671595</v>
+        <v>0.02182682111197064</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06674723977848208</v>
+        <v>0.06608733502764977</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -1850,19 +1850,19 @@
         <v>47487</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36100</v>
+        <v>36443</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61322</v>
+        <v>62302</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03808901428164921</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02895588894193486</v>
+        <v>0.02923080437220061</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0491863225226269</v>
+        <v>0.04997248324490656</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>58</v>
@@ -1871,19 +1871,19 @@
         <v>59056</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44105</v>
+        <v>45707</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>74532</v>
+        <v>74953</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03824868355592419</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02856520100293099</v>
+        <v>0.02960261374017987</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04827159380634303</v>
+        <v>0.04854436203486494</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>285704</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>277431</v>
+        <v>277627</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>290898</v>
+        <v>290784</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9610816804104868</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9332527602215177</v>
+        <v>0.9339126649723503</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.978555097913284</v>
+        <v>0.9781731788880292</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1190</v>
@@ -1921,19 +1921,19 @@
         <v>1199245</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1185410</v>
+        <v>1184430</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1210632</v>
+        <v>1210289</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9619109857183508</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9508136774773731</v>
+        <v>0.9500275167550936</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9710441110580652</v>
+        <v>0.9707691956277994</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1483</v>
@@ -1942,19 +1942,19 @@
         <v>1484949</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1469473</v>
+        <v>1469052</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1499900</v>
+        <v>1498298</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9617513164440759</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9517284061936572</v>
+        <v>0.9514556379651352</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9714347989970691</v>
+        <v>0.9703973862598202</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>128394</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109383</v>
+        <v>108257</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>152100</v>
+        <v>156503</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03933913086272802</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03351423832598724</v>
+        <v>0.03316904725456163</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04660235634234795</v>
+        <v>0.04795155210013936</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>139</v>
@@ -2067,19 +2067,19 @@
         <v>146110</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>122209</v>
+        <v>124324</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>170274</v>
+        <v>170941</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04327782490902484</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0361981969791131</v>
+        <v>0.03682473963421681</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05043526082847152</v>
+        <v>0.05063272307397437</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>266</v>
@@ -2088,19 +2088,19 @@
         <v>274504</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>240942</v>
+        <v>242746</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>307952</v>
+        <v>308395</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04134178976433785</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03628716604900963</v>
+        <v>0.03655878497711652</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04637910794123221</v>
+        <v>0.04644583676322191</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3135388</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3111682</v>
+        <v>3107279</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3154399</v>
+        <v>3155525</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.960660869137272</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9533976436576518</v>
+        <v>0.952048447899862</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9664857616740126</v>
+        <v>0.9668309527454386</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3155</v>
@@ -2138,19 +2138,19 @@
         <v>3229986</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3205822</v>
+        <v>3205155</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3253887</v>
+        <v>3251772</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9567221750909751</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9495647391715285</v>
+        <v>0.9493672769260255</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9638018030208869</v>
+        <v>0.963175260365783</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6229</v>
@@ -2159,19 +2159,19 @@
         <v>6365374</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6331926</v>
+        <v>6331483</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6398936</v>
+        <v>6397132</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9586582102356621</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9536208920587678</v>
+        <v>0.9535541632367781</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9637128339509904</v>
+        <v>0.9634412150228835</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>56411</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43309</v>
+        <v>41477</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72899</v>
+        <v>74209</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1290240091294937</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09905685728216444</v>
+        <v>0.09486715904457511</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.166736791360995</v>
+        <v>0.1697338351490376</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -2526,19 +2526,19 @@
         <v>32333</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22120</v>
+        <v>22079</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45328</v>
+        <v>46448</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1028233221375947</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07034336511082091</v>
+        <v>0.07021322502936099</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1441489974001851</v>
+        <v>0.1477107540901138</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -2547,19 +2547,19 @@
         <v>88744</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>71077</v>
+        <v>69395</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111961</v>
+        <v>107066</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1180631194786319</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09455969534507794</v>
+        <v>0.0923210652094397</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1489512205768817</v>
+        <v>0.1424384667810668</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>380800</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>364312</v>
+        <v>363002</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>393902</v>
+        <v>395734</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8709759908705063</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8332632086390056</v>
+        <v>0.8302661648509625</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9009431427178356</v>
+        <v>0.9051328409554251</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -2597,19 +2597,19 @@
         <v>282121</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269126</v>
+        <v>268006</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>292334</v>
+        <v>292375</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8971766778624053</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8558510025998149</v>
+        <v>0.8522892459098853</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.929656634889179</v>
+        <v>0.9297867749706388</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>609</v>
@@ -2618,19 +2618,19 @@
         <v>662921</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>639704</v>
+        <v>644599</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>680588</v>
+        <v>682270</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8819368805213681</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.851048779423119</v>
+        <v>0.8575615332189334</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9054403046549223</v>
+        <v>0.9076789347905606</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>72915</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56871</v>
+        <v>57182</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93663</v>
+        <v>94117</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1741069584527317</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1357966246844789</v>
+        <v>0.1365390842077556</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2236467063852765</v>
+        <v>0.2247322093347767</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -2743,19 +2743,19 @@
         <v>25170</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15449</v>
+        <v>16014</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39510</v>
+        <v>39120</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07446458360277906</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0457044053265241</v>
+        <v>0.04737763782634652</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1168883445531122</v>
+        <v>0.1157359861662493</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>76</v>
@@ -2764,19 +2764,19 @@
         <v>98085</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79744</v>
+        <v>77332</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>123119</v>
+        <v>121081</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1296039589092073</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1053690862562763</v>
+        <v>0.1021815537002991</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1626814726039549</v>
+        <v>0.1599887980200594</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>345882</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>325134</v>
+        <v>324680</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>361926</v>
+        <v>361615</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8258930415472684</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7763532936147235</v>
+        <v>0.7752677906652233</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8642033753155212</v>
+        <v>0.8634609157922445</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>287</v>
@@ -2814,19 +2814,19 @@
         <v>312841</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>298501</v>
+        <v>298891</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>322562</v>
+        <v>321997</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9255354163972209</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8831116554468879</v>
+        <v>0.8842640138337516</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9542955946734761</v>
+        <v>0.9526223621736538</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>604</v>
@@ -2835,19 +2835,19 @@
         <v>658723</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>633689</v>
+        <v>635727</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>677064</v>
+        <v>679476</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8703960410907926</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8373185273960452</v>
+        <v>0.8400112019799412</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8946309137437238</v>
+        <v>0.897818446299701</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>5764</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12756</v>
+        <v>14162</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009157555434292707</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003049281973357775</v>
+        <v>0.003054651437582584</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0202667143587928</v>
+        <v>0.02250082409711133</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -2960,19 +2960,19 @@
         <v>8057</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3091</v>
+        <v>3188</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15469</v>
+        <v>16127</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03097230001062009</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01188067037469283</v>
+        <v>0.01225480102447384</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05946576071278929</v>
+        <v>0.06199689976046831</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -2981,19 +2981,19 @@
         <v>13821</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7764</v>
+        <v>7080</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25191</v>
+        <v>24227</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01553684131465414</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008728624790349348</v>
+        <v>0.007958630717881275</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0283188235032274</v>
+        <v>0.02723560998860985</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>623651</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>616659</v>
+        <v>615253</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>627496</v>
+        <v>627492</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9908424445657072</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9797332856412073</v>
+        <v>0.9774991759028887</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9969507180266423</v>
+        <v>0.9969453485624175</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>237</v>
@@ -3031,19 +3031,19 @@
         <v>252072</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>244660</v>
+        <v>244002</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>257038</v>
+        <v>256941</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9690276999893799</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.940534239287211</v>
+        <v>0.9380031002395317</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9881193296253072</v>
+        <v>0.9877451989755262</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>823</v>
@@ -3052,19 +3052,19 @@
         <v>875723</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>864353</v>
+        <v>865317</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>881780</v>
+        <v>882464</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9844631586853458</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9716811764967725</v>
+        <v>0.9727643900113901</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9912713752096506</v>
+        <v>0.9920413692821187</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>5755</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2025</v>
+        <v>1951</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11473</v>
+        <v>13247</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004969506329395664</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001748535595402935</v>
+        <v>0.001684805472152398</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.00990698124449706</v>
+        <v>0.01143965817302409</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -3177,19 +3177,19 @@
         <v>14946</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8167</v>
+        <v>7874</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25630</v>
+        <v>25982</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01949531174963287</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01065292097761627</v>
+        <v>0.01027093567215261</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03343121728220651</v>
+        <v>0.03389016517737902</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -3198,19 +3198,19 @@
         <v>20701</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12911</v>
+        <v>12879</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32256</v>
+        <v>32698</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01075555164342412</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0067082298793682</v>
+        <v>0.006691630362380041</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01675906735387745</v>
+        <v>0.01698867991119744</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1152273</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1146555</v>
+        <v>1144781</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1156003</v>
+        <v>1156077</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9950304936706044</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9900930187555029</v>
+        <v>0.9885603418269759</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.998251464404597</v>
+        <v>0.9983151945278476</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>699</v>
@@ -3248,19 +3248,19 @@
         <v>751711</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>741027</v>
+        <v>740675</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>758490</v>
+        <v>758783</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9805046882503672</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9665687827177933</v>
+        <v>0.9661098348226207</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9893470790223836</v>
+        <v>0.9897290643278474</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1775</v>
@@ -3269,19 +3269,19 @@
         <v>1903984</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1892429</v>
+        <v>1891987</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1911774</v>
+        <v>1911806</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9892444483565759</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9832409326461226</v>
+        <v>0.9830113200888023</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9932917701206317</v>
+        <v>0.9933083696376199</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>3564</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>906</v>
+        <v>887</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8983</v>
+        <v>8612</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00697949162244348</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001774956734180137</v>
+        <v>0.001736211258281561</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0175933405486893</v>
+        <v>0.01686707183510401</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -3394,19 +3394,19 @@
         <v>9421</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4876</v>
+        <v>4119</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17816</v>
+        <v>16411</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01237098757148048</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006403075763568484</v>
+        <v>0.005409521973004872</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02339528209853403</v>
+        <v>0.02154976297112026</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -3415,19 +3415,19 @@
         <v>12984</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7113</v>
+        <v>7669</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21937</v>
+        <v>21747</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01020697619903071</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005591735001811977</v>
+        <v>0.006028578785229409</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01724434371561983</v>
+        <v>0.01709547604283449</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>507032</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>501613</v>
+        <v>501984</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>509690</v>
+        <v>509709</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9930205083775565</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9824066594513109</v>
+        <v>0.9831329281648964</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9982250432658198</v>
+        <v>0.9982637887417185</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>694</v>
@@ -3465,19 +3465,19 @@
         <v>752101</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>743706</v>
+        <v>745111</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>756646</v>
+        <v>757403</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9876290124285195</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.976604717901466</v>
+        <v>0.9784502370288797</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9935969242364314</v>
+        <v>0.9945904780269951</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1177</v>
@@ -3486,19 +3486,19 @@
         <v>1259134</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1250181</v>
+        <v>1250371</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1265005</v>
+        <v>1264449</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9897930238009693</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.98275565628438</v>
+        <v>0.9829045239571654</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9944082649981879</v>
+        <v>0.9939714212147706</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>13617</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7350</v>
+        <v>7661</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22799</v>
+        <v>23751</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05102183960231048</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02753936943734601</v>
+        <v>0.02870392888247269</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.085427065152758</v>
+        <v>0.08899606911048</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -3611,19 +3611,19 @@
         <v>32572</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22422</v>
+        <v>22219</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47216</v>
+        <v>45477</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02936099452010498</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02021213803186997</v>
+        <v>0.02002859696786769</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04256160818001194</v>
+        <v>0.04099380225851386</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>41</v>
@@ -3632,19 +3632,19 @@
         <v>46188</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33172</v>
+        <v>32856</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63025</v>
+        <v>61450</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03356150947260209</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02410343974006147</v>
+        <v>0.0238736697358489</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04579510865569406</v>
+        <v>0.04465119316842529</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>253265</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>244083</v>
+        <v>243131</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259532</v>
+        <v>259221</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9489781603976896</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9145729348472408</v>
+        <v>0.9110039308895197</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9724606305626521</v>
+        <v>0.9712960711175272</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1015</v>
@@ -3682,19 +3682,19 @@
         <v>1076779</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1062135</v>
+        <v>1063874</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1086929</v>
+        <v>1087132</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.970639005479895</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9574383918199889</v>
+        <v>0.9590061977414862</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9797878619681306</v>
+        <v>0.9799714030321325</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1268</v>
@@ -3703,19 +3703,19 @@
         <v>1330045</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1313208</v>
+        <v>1314783</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1343061</v>
+        <v>1343377</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9664384905273979</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.954204891344306</v>
+        <v>0.9553488068315747</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9758965602599385</v>
+        <v>0.9761263302641511</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>158025</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>134297</v>
+        <v>132099</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>190182</v>
+        <v>185545</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04619370511574664</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0392575646935121</v>
+        <v>0.0386148242042688</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05559363379275011</v>
+        <v>0.0542382952909051</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>104</v>
@@ -3828,19 +3828,19 @@
         <v>122499</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>100348</v>
+        <v>101361</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147349</v>
+        <v>148306</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.034505414860473</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02826596531545139</v>
+        <v>0.02855125056912998</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0415052644657457</v>
+        <v>0.04177477648760382</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>238</v>
@@ -3849,19 +3849,19 @@
         <v>280524</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>246424</v>
+        <v>246935</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>317817</v>
+        <v>319628</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04024124871051702</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03534964474378045</v>
+        <v>0.03542291264141742</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0455908911465692</v>
+        <v>0.04585080358703828</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3262904</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3230747</v>
+        <v>3235384</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3286632</v>
+        <v>3288830</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9538062948842534</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9444063662072498</v>
+        <v>0.9457617047090952</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.960742435306488</v>
+        <v>0.9613851757957314</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3186</v>
@@ -3899,19 +3899,19 @@
         <v>3427626</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3402776</v>
+        <v>3401819</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3449777</v>
+        <v>3448764</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.965494585139527</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9584947355342542</v>
+        <v>0.9582252235123963</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9717340346845486</v>
+        <v>0.97144874943087</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6256</v>
@@ -3920,19 +3920,19 @@
         <v>6690530</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6653237</v>
+        <v>6651426</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6724630</v>
+        <v>6724119</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.959758751289483</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9544091088534308</v>
+        <v>0.9541491964129617</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9646503552562196</v>
+        <v>0.9645770873585826</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>65068</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51230</v>
+        <v>49616</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83650</v>
+        <v>82391</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1516401966775603</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1193918147343838</v>
+        <v>0.1156301456479824</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1949467238422239</v>
+        <v>0.1920134617658015</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -4287,19 +4287,19 @@
         <v>42554</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31631</v>
+        <v>31273</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55702</v>
+        <v>55861</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1226134409004683</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09114126640745147</v>
+        <v>0.09010904443109856</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1605000701248103</v>
+        <v>0.1609570063317455</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>99</v>
@@ -4308,19 +4308,19 @@
         <v>107621</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>90491</v>
+        <v>88915</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>129940</v>
+        <v>130853</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1386608524415068</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.116589519010954</v>
+        <v>0.1145600266943484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1674161079353277</v>
+        <v>0.1685932343489913</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>364024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>345442</v>
+        <v>346701</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>377862</v>
+        <v>379476</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8483598033224397</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8050532761577758</v>
+        <v>0.8079865382341985</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8806081852656161</v>
+        <v>0.8843698543520176</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>291</v>
@@ -4358,19 +4358,19 @@
         <v>304501</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>291353</v>
+        <v>291194</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>315424</v>
+        <v>315782</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8773865590995317</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8394999298751894</v>
+        <v>0.8390429936682544</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9088587335925483</v>
+        <v>0.9098909555689011</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>629</v>
@@ -4379,19 +4379,19 @@
         <v>668526</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>646207</v>
+        <v>645294</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>685656</v>
+        <v>687232</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8613391475584932</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8325838920646722</v>
+        <v>0.8314067656510087</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.883410480989046</v>
+        <v>0.8854399733056516</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>56554</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44269</v>
+        <v>42417</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72305</v>
+        <v>71928</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1503053671210852</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1176543509180806</v>
+        <v>0.1127318827002861</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1921654923509265</v>
+        <v>0.1911641721141135</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -4504,19 +4504,19 @@
         <v>26694</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17355</v>
+        <v>17726</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38673</v>
+        <v>38867</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07170422482615056</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04661900666561452</v>
+        <v>0.04761469663575554</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1038842768183963</v>
+        <v>0.1044032869459174</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -4525,19 +4525,19 @@
         <v>83248</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65897</v>
+        <v>64576</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>102892</v>
+        <v>100660</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1112142940636644</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08803425497836677</v>
+        <v>0.08626953691393976</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1374581110176077</v>
+        <v>0.1344761167190586</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>319709</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>303958</v>
+        <v>304335</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>331994</v>
+        <v>333846</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8496946328789148</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8078345076490739</v>
+        <v>0.8088358278858865</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8823456490819196</v>
+        <v>0.8872681172997142</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>327</v>
@@ -4575,19 +4575,19 @@
         <v>345579</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>333600</v>
+        <v>333406</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>354918</v>
+        <v>354547</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9282957751738494</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8961157231816038</v>
+        <v>0.8955967130540823</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9533809933343854</v>
+        <v>0.9523853033642442</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>627</v>
@@ -4596,19 +4596,19 @@
         <v>665289</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>645645</v>
+        <v>647877</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>682640</v>
+        <v>683961</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8887857059363355</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8625418889823925</v>
+        <v>0.8655238832809414</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9119657450216333</v>
+        <v>0.9137304630860604</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>3743</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10172</v>
+        <v>10684</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007171073020299852</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001952134526202042</v>
+        <v>0.001961196289377835</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01948978909977492</v>
+        <v>0.02047012102614256</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -4721,19 +4721,19 @@
         <v>4263</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1053</v>
+        <v>1266</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10705</v>
+        <v>10194</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.025659147203734</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006338495304866691</v>
+        <v>0.007621330333975614</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06444247143885749</v>
+        <v>0.06136465946605823</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -4742,19 +4742,19 @@
         <v>8005</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3260</v>
+        <v>3292</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16445</v>
+        <v>15937</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01163492159412481</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00473762330877604</v>
+        <v>0.004784898832412905</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02390092320701665</v>
+        <v>0.02316271872720704</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>518171</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>511742</v>
+        <v>511230</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520895</v>
+        <v>520890</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9928289269797002</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9805102109002251</v>
+        <v>0.9795298789738573</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.998047865473798</v>
+        <v>0.9980388037106223</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -4792,19 +4792,19 @@
         <v>161860</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>155418</v>
+        <v>155929</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165070</v>
+        <v>164857</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.974340852796266</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9355575285611417</v>
+        <v>0.9386353405339423</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9936615046951313</v>
+        <v>0.9923786696660244</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>648</v>
@@ -4813,19 +4813,19 @@
         <v>680031</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>671591</v>
+        <v>672099</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>684776</v>
+        <v>684744</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9883650784058752</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9760990767929841</v>
+        <v>0.9768372812727933</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9952623766912241</v>
+        <v>0.9952151011675872</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>18638</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11373</v>
+        <v>11479</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29641</v>
+        <v>29359</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01622492838400597</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009900800980113042</v>
+        <v>0.0099930267217178</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02580372111499616</v>
+        <v>0.02555811821334751</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -4938,19 +4938,19 @@
         <v>15926</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9198</v>
+        <v>9106</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26121</v>
+        <v>25705</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01936684976041293</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01118563019848056</v>
+        <v>0.01107342726823541</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03176518224468009</v>
+        <v>0.03125916095498887</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -4959,19 +4959,19 @@
         <v>34563</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24371</v>
+        <v>24589</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48186</v>
+        <v>48158</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01753575281942009</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01236473888989969</v>
+        <v>0.01247516762078012</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0244470202076711</v>
+        <v>0.02443318749176032</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1130066</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1119063</v>
+        <v>1119345</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1137331</v>
+        <v>1137225</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.983775071615994</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9741962788850038</v>
+        <v>0.9744418817866525</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.990099199019887</v>
+        <v>0.9900069732782822</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>780</v>
@@ -5009,19 +5009,19 @@
         <v>806395</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>796200</v>
+        <v>796616</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>813123</v>
+        <v>813215</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9806331502395871</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9682348177553198</v>
+        <v>0.9687408390450111</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9888143698015195</v>
+        <v>0.9889265727317645</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1865</v>
@@ -5030,19 +5030,19 @@
         <v>1936462</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1922839</v>
+        <v>1922867</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1946654</v>
+        <v>1946436</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9824642471805799</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9755529797923289</v>
+        <v>0.9755668125082396</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9876352611101004</v>
+        <v>0.9875248323792198</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>3167</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8601</v>
+        <v>8498</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005112511267270949</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001601471997075975</v>
+        <v>0.001597855648602597</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01388220889910715</v>
+        <v>0.01371729344714145</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -5155,19 +5155,19 @@
         <v>4351</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11185</v>
+        <v>11675</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005902177520768946</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001327459204542015</v>
+        <v>0.001312286248127765</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01517031570695539</v>
+        <v>0.01583533275998119</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -5176,19 +5176,19 @@
         <v>7519</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2949</v>
+        <v>3155</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13815</v>
+        <v>15080</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005541603463074837</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002173534183805096</v>
+        <v>0.002325139668807867</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01018206958939012</v>
+        <v>0.01111405661809482</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>616371</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>610937</v>
+        <v>611040</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>618546</v>
+        <v>618548</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.994887488732729</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.986117791100893</v>
+        <v>0.9862827065528582</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9983985280029239</v>
+        <v>0.9984021443513974</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>694</v>
@@ -5226,19 +5226,19 @@
         <v>732914</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>726080</v>
+        <v>725590</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>736286</v>
+        <v>736297</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9940978224792311</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9848296842930447</v>
+        <v>0.9841646672400194</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.998672540795458</v>
+        <v>0.9986877137518723</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1287</v>
@@ -5247,19 +5247,19 @@
         <v>1349284</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1342988</v>
+        <v>1341723</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1353854</v>
+        <v>1353648</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9944583965369251</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9898179304106099</v>
+        <v>0.9888859433819053</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9978264658161949</v>
+        <v>0.9976748603311921</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>9176</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4338</v>
+        <v>4226</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16284</v>
+        <v>17200</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03195456795586118</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01510797087695873</v>
+        <v>0.01471802559484638</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05671053438276097</v>
+        <v>0.05989937476093239</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -5372,19 +5372,19 @@
         <v>27398</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17339</v>
+        <v>17862</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39329</v>
+        <v>39847</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0253505757878712</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01604385356775604</v>
+        <v>0.01652768196942958</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03639079106112979</v>
+        <v>0.03686980451175109</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -5393,19 +5393,19 @@
         <v>36573</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26139</v>
+        <v>25869</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52209</v>
+        <v>50409</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.026736865569654</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01910898601340806</v>
+        <v>0.01891146805028473</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0381674511739975</v>
+        <v>0.03685149055744232</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>277969</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>270861</v>
+        <v>269945</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>282807</v>
+        <v>282919</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9680454320441388</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.943289465617239</v>
+        <v>0.9401006252390679</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9848920291230413</v>
+        <v>0.9852819744051536</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>967</v>
@@ -5443,19 +5443,19 @@
         <v>1053356</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1041425</v>
+        <v>1040907</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1063415</v>
+        <v>1062892</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9746494242121289</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9636092089388701</v>
+        <v>0.963130195488249</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9839561464322439</v>
+        <v>0.9834723180305704</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1230</v>
@@ -5464,19 +5464,19 @@
         <v>1331326</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1315690</v>
+        <v>1317490</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1341760</v>
+        <v>1342030</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.973263134430346</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9618325488260024</v>
+        <v>0.9631485094425577</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.980891013986592</v>
+        <v>0.9810885319497152</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>156345</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>134309</v>
+        <v>132871</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>183575</v>
+        <v>184466</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0462197030479703</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03970511579453032</v>
+        <v>0.03928006369796601</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05426961083791494</v>
+        <v>0.05453297360371565</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>113</v>
@@ -5589,19 +5589,19 @@
         <v>121185</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>99910</v>
+        <v>100784</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>145886</v>
+        <v>144853</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03437092855747367</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0283370307623904</v>
+        <v>0.02858469929379015</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04137681158430283</v>
+        <v>0.04108374561027866</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>256</v>
@@ -5610,19 +5610,19 @@
         <v>277530</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>249639</v>
+        <v>245685</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>317143</v>
+        <v>312637</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04017256929861736</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03613537867756176</v>
+        <v>0.03556303538668334</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0459065457568611</v>
+        <v>0.04525434479473994</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3226311</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3199081</v>
+        <v>3198190</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3248347</v>
+        <v>3249785</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9537802969520297</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9457303891620851</v>
+        <v>0.9454670263962843</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9602948842054696</v>
+        <v>0.960719936302034</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3208</v>
@@ -5660,19 +5660,19 @@
         <v>3404606</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3379905</v>
+        <v>3380938</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3425881</v>
+        <v>3425007</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9656290714425263</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9586231884156972</v>
+        <v>0.9589162543897211</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9716629692376095</v>
+        <v>0.9714153007062098</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6286</v>
@@ -5681,19 +5681,19 @@
         <v>6630917</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6591304</v>
+        <v>6595810</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6658808</v>
+        <v>6662762</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9598274307013827</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9540934542431388</v>
+        <v>0.9547456552052601</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9638646213224382</v>
+        <v>0.9644369646133167</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>47616</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35992</v>
+        <v>36798</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60627</v>
+        <v>62493</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08647778160257859</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06536703346020066</v>
+        <v>0.06682994410975238</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1101069131155488</v>
+        <v>0.1134960596601046</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -6048,19 +6048,19 @@
         <v>45171</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36214</v>
+        <v>34826</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56590</v>
+        <v>56673</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09248648417460428</v>
+        <v>0.0924864841746043</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07414568464079034</v>
+        <v>0.07130451027870606</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1158653177670089</v>
+        <v>0.1160352757225199</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>124</v>
@@ -6069,19 +6069,19 @@
         <v>92788</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77366</v>
+        <v>76412</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111327</v>
+        <v>110514</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08930226033844535</v>
+        <v>0.08930226033844534</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07446003138026487</v>
+        <v>0.07354136632387946</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1071448644859386</v>
+        <v>0.1063625519440516</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>503002</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>489991</v>
+        <v>488125</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>514626</v>
+        <v>513820</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9135222183974214</v>
+        <v>0.9135222183974215</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8898930868844512</v>
+        <v>0.8865039403398954</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9346329665397993</v>
+        <v>0.9331700558902476</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>617</v>
@@ -6119,19 +6119,19 @@
         <v>443240</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>431821</v>
+        <v>431738</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>452197</v>
+        <v>453585</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9075135158253957</v>
+        <v>0.9075135158253956</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8841346822329912</v>
+        <v>0.8839647242774797</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9258543153592097</v>
+        <v>0.9286954897212938</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1116</v>
@@ -6140,19 +6140,19 @@
         <v>946241</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>927702</v>
+        <v>928515</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>961663</v>
+        <v>962617</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9106977396615548</v>
+        <v>0.9106977396615547</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8928551355140616</v>
+        <v>0.8936374480559484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9255399686197358</v>
+        <v>0.9264586336761207</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>52552</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40312</v>
+        <v>39659</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69852</v>
+        <v>68065</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1087560614332575</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08342409242753086</v>
+        <v>0.08207396503813075</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1445567314869924</v>
+        <v>0.1408600169172692</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -6265,19 +6265,19 @@
         <v>21063</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14619</v>
+        <v>14325</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29834</v>
+        <v>29639</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04977793754746448</v>
+        <v>0.04977793754746449</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0345493530950722</v>
+        <v>0.03385490547776302</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07050654336489878</v>
+        <v>0.07004517544059721</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -6286,19 +6286,19 @@
         <v>73615</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58862</v>
+        <v>58234</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90729</v>
+        <v>90621</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08122140708358955</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06494343062169157</v>
+        <v>0.06425097082545284</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1001031650609738</v>
+        <v>0.09998418310130061</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>430660</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>413360</v>
+        <v>415147</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>442900</v>
+        <v>443553</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8912439385667424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8554432685130078</v>
+        <v>0.8591399830827305</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9165759075724693</v>
+        <v>0.9179260349618693</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>558</v>
@@ -6336,19 +6336,19 @@
         <v>402080</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>393309</v>
+        <v>393504</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>408524</v>
+        <v>408818</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9502220624525355</v>
+        <v>0.9502220624525354</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9294934566351012</v>
+        <v>0.9299548245594027</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9654506469049279</v>
+        <v>0.966145094522237</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>987</v>
@@ -6357,19 +6357,19 @@
         <v>832740</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>815626</v>
+        <v>815734</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>847493</v>
+        <v>848121</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9187785929164105</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8998968349390262</v>
+        <v>0.9000158168986994</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9350565693783086</v>
+        <v>0.9357490291745471</v>
       </c>
     </row>
     <row r="9">
@@ -6464,16 +6464,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10421</v>
+        <v>9462</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.004974348014294747</v>
+        <v>0.004974348014294746</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02209580758174973</v>
+        <v>0.02006306748234695</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -6482,19 +6482,19 @@
         <v>2421</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>702</v>
+        <v>629</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5885</v>
+        <v>5815</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01290987414221862</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003745714029358234</v>
+        <v>0.003354131083865339</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03138729248541103</v>
+        <v>0.03101588259539977</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -6503,19 +6503,19 @@
         <v>4767</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1322</v>
+        <v>1433</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13259</v>
+        <v>13654</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007231773726377472</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002005173256342703</v>
+        <v>0.002174333980409893</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02011722748674661</v>
+        <v>0.0207155037107335</v>
       </c>
     </row>
     <row r="11">
@@ -6532,16 +6532,16 @@
         <v>469266</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>461191</v>
+        <v>462150</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>471612</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9950256519857054</v>
+        <v>0.9950256519857051</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9779041924182514</v>
+        <v>0.9799369325176531</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -6553,19 +6553,19 @@
         <v>185076</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>181612</v>
+        <v>181682</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>186795</v>
+        <v>186868</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9870901258577813</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9686127075145891</v>
+        <v>0.9689841174046003</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9962542859706417</v>
+        <v>0.9966458689161346</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>772</v>
@@ -6574,19 +6574,19 @@
         <v>654342</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>645850</v>
+        <v>645455</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>657787</v>
+        <v>657676</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9927682262736227</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9798827725132535</v>
+        <v>0.9792844962892654</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9979948267436574</v>
+        <v>0.9978256660195899</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>12582</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5635</v>
+        <v>5745</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26615</v>
+        <v>26473</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01111672424262079</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004978478829001002</v>
+        <v>0.005075435422485924</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02351476000780676</v>
+        <v>0.0233896079276412</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -6699,19 +6699,19 @@
         <v>7462</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3831</v>
+        <v>4246</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12248</v>
+        <v>13339</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008664682885147263</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0044486933275499</v>
+        <v>0.004930224396833223</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01422173514410236</v>
+        <v>0.01548819445792788</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -6720,19 +6720,19 @@
         <v>20045</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12076</v>
+        <v>12228</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34392</v>
+        <v>33027</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01005718154975347</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006058999834513014</v>
+        <v>0.00613524060521842</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01725617927654932</v>
+        <v>0.01657102214149113</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1119261</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1105228</v>
+        <v>1105370</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1126208</v>
+        <v>1126098</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9888832757573792</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9764852399921926</v>
+        <v>0.9766103920723584</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9950215211709992</v>
+        <v>0.994924564577514</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1217</v>
@@ -6770,19 +6770,19 @@
         <v>853749</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>848963</v>
+        <v>847872</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>857380</v>
+        <v>856965</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9913353171148528</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9857782648558976</v>
+        <v>0.9845118055420721</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9955513066724501</v>
+        <v>0.9950697756031668</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2326</v>
@@ -6791,19 +6791,19 @@
         <v>1973009</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1958662</v>
+        <v>1960027</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1980978</v>
+        <v>1980826</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9899428184502465</v>
+        <v>0.9899428184502468</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9827438207234507</v>
+        <v>0.983428977858509</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9939410001654869</v>
+        <v>0.9938647593947816</v>
       </c>
     </row>
     <row r="15">
@@ -6898,16 +6898,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9726</v>
+        <v>9639</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.004454485592076276</v>
+        <v>0.004454485592076275</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01712479556796814</v>
+        <v>0.01697185505088861</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -6916,19 +6916,19 @@
         <v>3340</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1239</v>
+        <v>1265</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7354</v>
+        <v>7625</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004023079549166792</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001492451524246244</v>
+        <v>0.00152384084381464</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008859099876401627</v>
+        <v>0.009185640625628946</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -6937,19 +6937,19 @@
         <v>5870</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2780</v>
+        <v>2666</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14030</v>
+        <v>13493</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004198334912551831</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00198865804928004</v>
+        <v>0.001906949988314493</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01003509217359175</v>
+        <v>0.009650870094195746</v>
       </c>
     </row>
     <row r="17">
@@ -6966,16 +6966,16 @@
         <v>565434</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>558238</v>
+        <v>558325</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>567964</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9955455144079239</v>
+        <v>0.9955455144079237</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9828752044320318</v>
+        <v>0.9830281449491123</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6987,19 +6987,19 @@
         <v>826787</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>822773</v>
+        <v>822502</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>828888</v>
+        <v>828862</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9959769204508333</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9911409001235972</v>
+        <v>0.9908143593743715</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9985075484757537</v>
+        <v>0.9984761591561854</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1829</v>
@@ -7008,19 +7008,19 @@
         <v>1392221</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1384061</v>
+        <v>1384598</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1395311</v>
+        <v>1395425</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9958016650874485</v>
+        <v>0.9958016650874483</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9899649078264082</v>
+        <v>0.9903491299058043</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9980113419507199</v>
+        <v>0.9980930500116855</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>10202</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2561</v>
+        <v>2908</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24893</v>
+        <v>24922</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04300612425231508</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01079563385365381</v>
+        <v>0.01225650851119067</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1049307692021414</v>
+        <v>0.1050532823907749</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -7133,19 +7133,19 @@
         <v>18131</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12181</v>
+        <v>12496</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26906</v>
+        <v>26330</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02147539686544691</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01442786540629401</v>
+        <v>0.01480058651882997</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03186908143193547</v>
+        <v>0.03118647822811345</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -7154,19 +7154,19 @@
         <v>28334</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17529</v>
+        <v>19341</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44295</v>
+        <v>47077</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02619813816305917</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01620821314675791</v>
+        <v>0.01788368339675842</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04095630616650765</v>
+        <v>0.04352898379090253</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>227026</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>212335</v>
+        <v>212306</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234667</v>
+        <v>234320</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.956993875747685</v>
+        <v>0.9569938757476849</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.89506923079786</v>
+        <v>0.8949467176092252</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9892043661463463</v>
+        <v>0.9877434914888095</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1131</v>
@@ -7204,19 +7204,19 @@
         <v>826150</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>817375</v>
+        <v>817951</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>832100</v>
+        <v>831785</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9785246031345529</v>
+        <v>0.9785246031345531</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9681309185680638</v>
+        <v>0.9688135217718863</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.985572134593706</v>
+        <v>0.9851994134811699</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1239</v>
@@ -7225,19 +7225,19 @@
         <v>1053175</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1037214</v>
+        <v>1034432</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1063980</v>
+        <v>1062168</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9738018618369408</v>
+        <v>0.9738018618369411</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9590436938334923</v>
+        <v>0.9564710162090974</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.983791786853242</v>
+        <v>0.9821163166032416</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>127829</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>104597</v>
+        <v>105774</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>154892</v>
+        <v>154143</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03713288036606208</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03038420996573767</v>
+        <v>0.03072611321622797</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04499433378320931</v>
+        <v>0.04477683932994323</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>151</v>
@@ -7350,19 +7350,19 @@
         <v>97588</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>82080</v>
+        <v>83967</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>113995</v>
+        <v>117368</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02684925564997758</v>
+        <v>0.02684925564997757</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02258265269991691</v>
+        <v>0.02310168975467938</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03136320304798591</v>
+        <v>0.03229130137486549</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>274</v>
@@ -7371,19 +7371,19 @@
         <v>225417</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>197806</v>
+        <v>196946</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>254431</v>
+        <v>256166</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03185143152584335</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02794996481047824</v>
+        <v>0.02782846308878876</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03595110493018093</v>
+        <v>0.03619619869110791</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3314647</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3287584</v>
+        <v>3288333</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3337879</v>
+        <v>3336702</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9628671196339381</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9550056662167906</v>
+        <v>0.9552231606700569</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9696157900342622</v>
+        <v>0.9692738867837721</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5092</v>
@@ -7421,19 +7421,19 @@
         <v>3537082</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3520675</v>
+        <v>3517302</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3552590</v>
+        <v>3550703</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9731507443500224</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9686367969520142</v>
+        <v>0.9677086986251344</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.977417347300083</v>
+        <v>0.9768983102453205</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8269</v>
@@ -7442,19 +7442,19 @@
         <v>6851729</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6822715</v>
+        <v>6820980</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6879340</v>
+        <v>6880200</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9681485684741564</v>
+        <v>0.9681485684741568</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9640488950698191</v>
+        <v>0.9638038013088922</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9720500351895216</v>
+        <v>0.9721715369112117</v>
       </c>
     </row>
     <row r="24">
